--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dispenserequest-expectedrepeatcount.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dispenserequest-expectedrepeatcount.xlsx
@@ -252,7 +252,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>頓⽤回数を表現する拡張</t>
+    <t>頓用回数を表現する拡張</t>
   </si>
   <si>
     <t>*</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dispenserequest-expectedrepeatcount.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrequest-dispenserequest-expectedrepeatcount.xlsx
@@ -249,13 +249,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t>頓用回数を表現する拡張</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -837,7 +837,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>79</v>
@@ -897,13 +897,13 @@
         <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -922,7 +922,7 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>76</v>
@@ -997,7 +997,7 @@
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1097,13 +1097,13 @@
         <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1119,10 +1119,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>76</v>
@@ -1196,10 +1196,10 @@
         <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -1221,10 +1221,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -1299,7 +1299,7 @@
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
